--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>C:\Users\AMARSRAVANI\Downloads\teahub.io-kids-photos-wallpapers-2227037.jpg</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
